--- a/asin-top.xlsx
+++ b/asin-top.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -393,7 +393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>958</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -413,7 +413,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>940</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -485,7 +485,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -493,7 +493,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/asin-top.xlsx
+++ b/asin-top.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,12 +380,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">basketball protector </t>
+          <t>tights with knee pads basketball</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>867</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -393,19 +393,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">knee pads compression pants </t>
+          <t>basketball spandex knee pads</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>537</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -413,19 +413,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">knee compression leggings </t>
+          <t>honeycomb compression pants</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>358</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -433,19 +433,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">leggings with knee pads </t>
+          <t>compression knee pants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -453,19 +453,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">compression knee pad pants </t>
+          <t>knee pads compression pants</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>949</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -480,12 +480,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">compression leggings knee pads </t>
+          <t>black basketball leggings for men</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -493,127 +493,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">knee pad leggings </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mens basketball tights with knee pads </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mens tights with knee pads </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">basketball tights with knee pads </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">pants with knee pads </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">tights with knee pads basketball </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
